--- a/ReadMe.txt/USUARIOS.xlsx
+++ b/ReadMe.txt/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanp\OneDrive\Documentos\EXCELS PATENTES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656E4DB4-F2A7-4ECE-8F01-3A5E2687E046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073BE7B-7364-4FA6-9439-2AC946C3B201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CAD5D287-F264-404E-B92E-4C9D193FC785}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>SILVER S.A.S</t>
   </si>
@@ -440,13 +440,43 @@
     <t>ID</t>
   </si>
   <si>
-    <t>CORPORACIÓN COLOMBIANA DE INVESTIGACIÓN AGROPECUARIA - AGROSAVIA,VISUALITI SAS</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
     <t>identificación</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LA SABANA</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE MEDELLIN</t>
+  </si>
+  <si>
+    <t>Juan Roncancio</t>
+  </si>
+  <si>
+    <t>CORPORACIÓN COLOMBIANA DE INVESTIGACIÓN AGROPECUARIA - AGROSAVIA</t>
+  </si>
+  <si>
+    <t>VISUALITI SAS</t>
+  </si>
+  <si>
+    <t>Angela Ines Dominguez Camacho</t>
+  </si>
+  <si>
+    <t>Yongnong Biosciences Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGO ANDRES LOPEZ </t>
+  </si>
+  <si>
+    <t>LifeFactors Canadá (LifeFactors IP LP)</t>
+  </si>
+  <si>
+    <t>JHON FREDY HINCAPIE ECHEVERRI</t>
+  </si>
+  <si>
+    <t>JEISON DANIEL ECHEVERRI LOPEZ</t>
   </si>
 </sst>
 </file>
@@ -530,10 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -873,9 +903,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A536091-FA4A-4E13-8B6B-551425216036}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -886,13 +918,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -906,7 +938,7 @@
         <v>1089933278</v>
       </c>
       <c r="D2" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C2)&amp;"','"&amp;A2&amp;"');"</f>
+        <f t="shared" ref="D2:D33" si="0">"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C2)&amp;"','"&amp;A2&amp;"');"</f>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933278','SILVER S.A.S');</v>
       </c>
     </row>
@@ -921,7 +953,7 @@
         <v>1089933279</v>
       </c>
       <c r="D3" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C3)&amp;"','"&amp;A3&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933279','APPLE INC.');</v>
       </c>
     </row>
@@ -936,7 +968,7 @@
         <v>1089933280</v>
       </c>
       <c r="D4" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C4)&amp;"','"&amp;A4&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933280','Luis Andres Jurado Diaz');</v>
       </c>
     </row>
@@ -951,7 +983,7 @@
         <v>1089933281</v>
       </c>
       <c r="D5" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C5)&amp;"','"&amp;A5&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933281','INBIOTECH S.A.S');</v>
       </c>
     </row>
@@ -966,7 +998,7 @@
         <v>1089933282</v>
       </c>
       <c r="D6" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C6)&amp;"','"&amp;A6&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933282','Miguel Esteban Beltrán González');</v>
       </c>
     </row>
@@ -981,7 +1013,7 @@
         <v>1089933283</v>
       </c>
       <c r="D7" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C7)&amp;"','"&amp;A7&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933283','WAGU S.A.S');</v>
       </c>
     </row>
@@ -996,7 +1028,7 @@
         <v>1089933284</v>
       </c>
       <c r="D8" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C8)&amp;"','"&amp;A8&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933284','LANDERS Y CIA. S.A.S.');</v>
       </c>
     </row>
@@ -1011,7 +1043,7 @@
         <v>1089933285</v>
       </c>
       <c r="D9" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C9)&amp;"','"&amp;A9&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933285','SANTIAGO ESCOBAR VELASQUEZ');</v>
       </c>
     </row>
@@ -1026,7 +1058,7 @@
         <v>1089933286</v>
       </c>
       <c r="D10" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C10)&amp;"','"&amp;A10&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933286','Softys S.A');</v>
       </c>
     </row>
@@ -1041,7 +1073,7 @@
         <v>1089933287</v>
       </c>
       <c r="D11" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C11)&amp;"','"&amp;A11&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933287','NATALIA COLORADO BETANCOURT');</v>
       </c>
     </row>
@@ -1056,7 +1088,7 @@
         <v>1089933288</v>
       </c>
       <c r="D12" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C12)&amp;"','"&amp;A12&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933288','SERIES INTERNATIONAL LLC');</v>
       </c>
     </row>
@@ -1071,7 +1103,7 @@
         <v>1089933289</v>
       </c>
       <c r="D13" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C13)&amp;"','"&amp;A13&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933289','YILVER ALEXIS CRUZ ORTIZ');</v>
       </c>
     </row>
@@ -1086,7 +1118,7 @@
         <v>1089933290</v>
       </c>
       <c r="D14" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C14)&amp;"','"&amp;A14&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933290','Daniel  López Tabares');</v>
       </c>
     </row>
@@ -1101,7 +1133,7 @@
         <v>1089933291</v>
       </c>
       <c r="D15" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C15)&amp;"','"&amp;A15&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933291','Carlos Emilio López Ciro');</v>
       </c>
     </row>
@@ -1116,7 +1148,7 @@
         <v>1089933292</v>
       </c>
       <c r="D16" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C16)&amp;"','"&amp;A16&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933292','Marco Antonio Iturriza Moreno');</v>
       </c>
     </row>
@@ -1131,7 +1163,7 @@
         <v>1089933293</v>
       </c>
       <c r="D17" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C17)&amp;"','"&amp;A17&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933293','SERVICIO NACIONAL DE APRENDIZAJE SENA');</v>
       </c>
     </row>
@@ -1146,7 +1178,7 @@
         <v>1089933294</v>
       </c>
       <c r="D18" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C18)&amp;"','"&amp;A18&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933294','TECSA S3 S.A.S');</v>
       </c>
     </row>
@@ -1161,7 +1193,7 @@
         <v>1089933295</v>
       </c>
       <c r="D19" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C19)&amp;"','"&amp;A19&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933295','CORPORACIÓN UNIVERSITARIA DE SANTA ROSA DE CABAL UNISARC');</v>
       </c>
     </row>
@@ -1176,7 +1208,7 @@
         <v>1089933296</v>
       </c>
       <c r="D20" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C20)&amp;"','"&amp;A20&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933296','SOCIAL RAEE SAS ');</v>
       </c>
     </row>
@@ -1191,7 +1223,7 @@
         <v>1089933297</v>
       </c>
       <c r="D21" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C21)&amp;"','"&amp;A21&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933297','EVEREST PRINTED SOLUTIONS SAS');</v>
       </c>
     </row>
@@ -1206,7 +1238,7 @@
         <v>1089933298</v>
       </c>
       <c r="D22" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C22)&amp;"','"&amp;A22&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933298','EDEMCO SAS');</v>
       </c>
     </row>
@@ -1221,7 +1253,7 @@
         <v>1089933299</v>
       </c>
       <c r="D23" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C23)&amp;"','"&amp;A23&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933299','QINGDAO RAINBOW CHEMICAL CO., LTD.');</v>
       </c>
     </row>
@@ -1236,7 +1268,7 @@
         <v>1089933300</v>
       </c>
       <c r="D24" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C24)&amp;"','"&amp;A24&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933300','PARTES Y COMPLEMENTOS PLÁSTICOS S.A.S.');</v>
       </c>
     </row>
@@ -1251,7 +1283,7 @@
         <v>1089933301</v>
       </c>
       <c r="D25" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C25)&amp;"','"&amp;A25&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933301','MARIA XIMENA BASTIDAS RODRIGUEZ');</v>
       </c>
     </row>
@@ -1266,7 +1298,7 @@
         <v>1089933302</v>
       </c>
       <c r="D26" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C26)&amp;"','"&amp;A26&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933302','ANA MELISA FERNANDES FERNANDES');</v>
       </c>
     </row>
@@ -1281,7 +1313,7 @@
         <v>1089933303</v>
       </c>
       <c r="D27" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C27)&amp;"','"&amp;A27&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933303','JUAN RONCACIO');</v>
       </c>
     </row>
@@ -1296,7 +1328,7 @@
         <v>1089933304</v>
       </c>
       <c r="D28" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C28)&amp;"','"&amp;A28&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933304','IVAN HERRERA MURGUEITIO');</v>
       </c>
     </row>
@@ -1311,13 +1343,13 @@
         <v>1089933305</v>
       </c>
       <c r="D29" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C29)&amp;"','"&amp;A29&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933305','UNIVERSIDAD MARIANA');</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -1326,8 +1358,8 @@
         <v>1089933306</v>
       </c>
       <c r="D30" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C30)&amp;"','"&amp;A30&amp;"');"</f>
-        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933306','CORPORACIÓN COLOMBIANA DE INVESTIGACIÓN AGROPECUARIA - AGROSAVIA,VISUALITI SAS');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933306','CORPORACIÓN COLOMBIANA DE INVESTIGACIÓN AGROPECUARIA - AGROSAVIA');</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,7 +1373,7 @@
         <v>1089933307</v>
       </c>
       <c r="D31" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C31)&amp;"','"&amp;A31&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933307','HERO MOTOCORP LIMITED');</v>
       </c>
     </row>
@@ -1356,7 +1388,7 @@
         <v>1089933308</v>
       </c>
       <c r="D32" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C32)&amp;"','"&amp;A32&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933308','CARLOS YESID VARELA BERNAL');</v>
       </c>
     </row>
@@ -1371,7 +1403,7 @@
         <v>1089933309</v>
       </c>
       <c r="D33" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C33)&amp;"','"&amp;A33&amp;"');"</f>
+        <f t="shared" si="0"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933309','YUBAR ALBERTO  ARROYAVE RESTREPO');</v>
       </c>
     </row>
@@ -1386,7 +1418,7 @@
         <v>1089933310</v>
       </c>
       <c r="D34" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C34)&amp;"','"&amp;A34&amp;"');"</f>
+        <f t="shared" ref="D34:D65" si="1">"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C34)&amp;"','"&amp;A34&amp;"');"</f>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933310','EQUINORTE S.A.');</v>
       </c>
     </row>
@@ -1401,7 +1433,7 @@
         <v>1089933311</v>
       </c>
       <c r="D35" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C35)&amp;"','"&amp;A35&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933311','Técnicos en Combustión y Tratamiento de Aguas TECCA SAS');</v>
       </c>
     </row>
@@ -1416,7 +1448,7 @@
         <v>1089933312</v>
       </c>
       <c r="D36" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C36)&amp;"','"&amp;A36&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933312','VERNEY ANTONIO BLANDON TORRES');</v>
       </c>
     </row>
@@ -1431,7 +1463,7 @@
         <v>1089933313</v>
       </c>
       <c r="D37" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C37)&amp;"','"&amp;A37&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933313','ROBERTO ANTONIO  CARDONA PEREZ ');</v>
       </c>
     </row>
@@ -1446,7 +1478,7 @@
         <v>1089933314</v>
       </c>
       <c r="D38" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C38)&amp;"','"&amp;A38&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933314','GALQUI S.A.S');</v>
       </c>
     </row>
@@ -1461,7 +1493,7 @@
         <v>1089933315</v>
       </c>
       <c r="D39" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C39)&amp;"','"&amp;A39&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933315','UNIVERSIDAD CATÓLICA DE CUENCA');</v>
       </c>
     </row>
@@ -1476,7 +1508,7 @@
         <v>1089933316</v>
       </c>
       <c r="D40" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C40)&amp;"','"&amp;A40&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933316','SUCESORES DE JOSE JESUS RESTREPO &amp; CIA. S.A. CASA LUKER S.A.');</v>
       </c>
     </row>
@@ -1491,7 +1523,7 @@
         <v>1089933317</v>
       </c>
       <c r="D41" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C41)&amp;"','"&amp;A41&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933317','MUDr. MICHAL VIRAG, PhD.');</v>
       </c>
     </row>
@@ -1506,7 +1538,7 @@
         <v>1089933318</v>
       </c>
       <c r="D42" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C42)&amp;"','"&amp;A42&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933318','CHRISTIAN CAMILO  MELO RINCÓN');</v>
       </c>
     </row>
@@ -1521,7 +1553,7 @@
         <v>1089933319</v>
       </c>
       <c r="D43" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C43)&amp;"','"&amp;A43&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933319','JOSE GUSTAVO GRISALES GARCIA ');</v>
       </c>
     </row>
@@ -1536,7 +1568,7 @@
         <v>1089933320</v>
       </c>
       <c r="D44" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C44)&amp;"','"&amp;A44&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933320','UNIVERSIDAD DEL VALLE');</v>
       </c>
     </row>
@@ -1551,7 +1583,7 @@
         <v>1089933321</v>
       </c>
       <c r="D45" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C45)&amp;"','"&amp;A45&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933321','JUAN CARLOS CUESTA QUINTERO');</v>
       </c>
     </row>
@@ -1566,7 +1598,7 @@
         <v>1089933322</v>
       </c>
       <c r="D46" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C46)&amp;"','"&amp;A46&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933322','ROBERTO CALVO');</v>
       </c>
     </row>
@@ -1581,7 +1613,7 @@
         <v>1089933323</v>
       </c>
       <c r="D47" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C47)&amp;"','"&amp;A47&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933323','Eclo S.A.S');</v>
       </c>
     </row>
@@ -1596,7 +1628,7 @@
         <v>1089933324</v>
       </c>
       <c r="D48" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C48)&amp;"','"&amp;A48&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933324','UNIVERSIDAD NACIONAL DE COLOMBIA');</v>
       </c>
     </row>
@@ -1611,7 +1643,7 @@
         <v>1089933325</v>
       </c>
       <c r="D49" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C49)&amp;"','"&amp;A49&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933325','UNIVERSIDAD AUTONOMA METROPOLITANA');</v>
       </c>
     </row>
@@ -1626,7 +1658,7 @@
         <v>1089933326</v>
       </c>
       <c r="D50" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C50)&amp;"','"&amp;A50&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933326','Rolando  Olarte Duran');</v>
       </c>
     </row>
@@ -1641,7 +1673,7 @@
         <v>1089933327</v>
       </c>
       <c r="D51" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C51)&amp;"','"&amp;A51&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933327','Yongnong Biosciences Co.');</v>
       </c>
     </row>
@@ -1656,7 +1688,7 @@
         <v>1089933328</v>
       </c>
       <c r="D52" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C52)&amp;"','"&amp;A52&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933328','Ningxia YongNong BioSciences CO.');</v>
       </c>
     </row>
@@ -1671,7 +1703,7 @@
         <v>1089933329</v>
       </c>
       <c r="D53" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C53)&amp;"','"&amp;A53&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933329','JM HIDROGENO VERDE S.A.S');</v>
       </c>
     </row>
@@ -1686,7 +1718,7 @@
         <v>1089933330</v>
       </c>
       <c r="D54" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C54)&amp;"','"&amp;A54&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933330','DANIEL MAURICIO  LOVERA PÉREZ');</v>
       </c>
     </row>
@@ -1701,7 +1733,7 @@
         <v>1089933331</v>
       </c>
       <c r="D55" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C55)&amp;"','"&amp;A55&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933331','Juan Carlos Montes Galarza');</v>
       </c>
     </row>
@@ -1716,7 +1748,7 @@
         <v>1089933332</v>
       </c>
       <c r="D56" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C56)&amp;"','"&amp;A56&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933332','CASALUKER S.A.');</v>
       </c>
     </row>
@@ -1731,7 +1763,7 @@
         <v>1089933333</v>
       </c>
       <c r="D57" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C57)&amp;"','"&amp;A57&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933333','Luis David Garcia Giraldo');</v>
       </c>
     </row>
@@ -1746,7 +1778,7 @@
         <v>1089933334</v>
       </c>
       <c r="D58" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C58)&amp;"','"&amp;A58&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933334','FOCA MOBILIDADE DO BRASIL LTDA');</v>
       </c>
     </row>
@@ -1761,7 +1793,7 @@
         <v>1089933335</v>
       </c>
       <c r="D59" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C59)&amp;"','"&amp;A59&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933335','MEALS DE COLOMBIA S.A.S.');</v>
       </c>
     </row>
@@ -1776,7 +1808,7 @@
         <v>1089933336</v>
       </c>
       <c r="D60" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C60)&amp;"','"&amp;A60&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933336','LABORATORIOS SILANES S.A. DE C.V.');</v>
       </c>
     </row>
@@ -1791,7 +1823,7 @@
         <v>1089933337</v>
       </c>
       <c r="D61" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C61)&amp;"','"&amp;A61&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933337','ceps engineering sas');</v>
       </c>
     </row>
@@ -1806,7 +1838,7 @@
         <v>1089933338</v>
       </c>
       <c r="D62" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C62)&amp;"','"&amp;A62&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933338','UNIVERSIDAD DISTRITAL FRANCISCO JOSE DE CALDAS');</v>
       </c>
     </row>
@@ -1821,7 +1853,7 @@
         <v>1089933339</v>
       </c>
       <c r="D63" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C63)&amp;"','"&amp;A63&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933339','JUAN PABLO ACEVEDO SUAREZ');</v>
       </c>
     </row>
@@ -1836,7 +1868,7 @@
         <v>1089933340</v>
       </c>
       <c r="D64" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C64)&amp;"','"&amp;A64&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933340','UNIVERSIDAD SERGIO ARBOLEDA');</v>
       </c>
     </row>
@@ -1851,7 +1883,7 @@
         <v>1089933341</v>
       </c>
       <c r="D65" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C65)&amp;"','"&amp;A65&amp;"');"</f>
+        <f t="shared" si="1"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933341','GUSTAVO ADOLFO  TORRES DUQUE');</v>
       </c>
     </row>
@@ -1866,7 +1898,7 @@
         <v>1089933342</v>
       </c>
       <c r="D66" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C66)&amp;"','"&amp;A66&amp;"');"</f>
+        <f t="shared" ref="D66:D97" si="2">"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C66)&amp;"','"&amp;A66&amp;"');"</f>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933342','Gerson Freive Restrepo');</v>
       </c>
     </row>
@@ -1881,7 +1913,7 @@
         <v>1089933343</v>
       </c>
       <c r="D67" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C67)&amp;"','"&amp;A67&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933343','COLEGIO MAYOR DE NUESTRA SEÑORA DEL ROSARIO');</v>
       </c>
     </row>
@@ -1896,7 +1928,7 @@
         <v>1089933344</v>
       </c>
       <c r="D68" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C68)&amp;"','"&amp;A68&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933344','FUNDACIÓN CARDIOINFANTIL - INSTITUTO DE CARDIOLOGÍA');</v>
       </c>
     </row>
@@ -1911,7 +1943,7 @@
         <v>1089933345</v>
       </c>
       <c r="D69" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C69)&amp;"','"&amp;A69&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933345','PROTECNICA INGENIERIA S.A.S.');</v>
       </c>
     </row>
@@ -1926,7 +1958,7 @@
         <v>1089933346</v>
       </c>
       <c r="D70" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C70)&amp;"','"&amp;A70&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933346','TabBrands Inc.');</v>
       </c>
     </row>
@@ -1941,7 +1973,7 @@
         <v>1089933347</v>
       </c>
       <c r="D71" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C71)&amp;"','"&amp;A71&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933347','INDUSTRIA DE EMPAQUETADURAS INDEPACK SAS');</v>
       </c>
     </row>
@@ -1956,7 +1988,7 @@
         <v>1089933348</v>
       </c>
       <c r="D72" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C72)&amp;"','"&amp;A72&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933348','JUAN ENRIQUE  ARANGO CADAVID');</v>
       </c>
     </row>
@@ -1971,7 +2003,7 @@
         <v>1089933349</v>
       </c>
       <c r="D73" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C73)&amp;"','"&amp;A73&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933349','SERUM INSTITUTE OF INDIA PRIVATE LIMITED');</v>
       </c>
     </row>
@@ -1986,7 +2018,7 @@
         <v>1089933350</v>
       </c>
       <c r="D74" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C74)&amp;"','"&amp;A74&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933350','TRAVEL-WALLET CO., LTD.');</v>
       </c>
     </row>
@@ -2001,7 +2033,7 @@
         <v>1089933351</v>
       </c>
       <c r="D75" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C75)&amp;"','"&amp;A75&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933351','ECOPETROL  S.A.');</v>
       </c>
     </row>
@@ -2016,7 +2048,7 @@
         <v>1089933352</v>
       </c>
       <c r="D76" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C76)&amp;"','"&amp;A76&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933352','CORPORACION UNIVERSITARIA DEL HUILA');</v>
       </c>
     </row>
@@ -2031,7 +2063,7 @@
         <v>1089933353</v>
       </c>
       <c r="D77" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C77)&amp;"','"&amp;A77&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933353','TEODICELO GOMEZ PUENTES');</v>
       </c>
     </row>
@@ -2046,7 +2078,7 @@
         <v>1089933354</v>
       </c>
       <c r="D78" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C78)&amp;"','"&amp;A78&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933354','GRAPHENE INVESTMENTS SAS');</v>
       </c>
     </row>
@@ -2061,7 +2093,7 @@
         <v>1089933355</v>
       </c>
       <c r="D79" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C79)&amp;"','"&amp;A79&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933355','UNIVERSIDAD INDUSTRIAL DE SANTANDER');</v>
       </c>
     </row>
@@ -2076,7 +2108,7 @@
         <v>1089933356</v>
       </c>
       <c r="D80" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C80)&amp;"','"&amp;A80&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933356','QUIPUX. S.A.S. ');</v>
       </c>
     </row>
@@ -2091,7 +2123,7 @@
         <v>1089933357</v>
       </c>
       <c r="D81" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C81)&amp;"','"&amp;A81&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933357','UNIVERSIDAD PONTIFICIA BOLIVARIANA');</v>
       </c>
     </row>
@@ -2106,7 +2138,7 @@
         <v>1089933358</v>
       </c>
       <c r="D82" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C82)&amp;"','"&amp;A82&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933358','MAXDRONE SAS');</v>
       </c>
     </row>
@@ -2121,7 +2153,7 @@
         <v>1089933359</v>
       </c>
       <c r="D83" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C83)&amp;"','"&amp;A83&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933359','YAMID LEONARDO MAZO BONILLA');</v>
       </c>
     </row>
@@ -2136,7 +2168,7 @@
         <v>1089933360</v>
       </c>
       <c r="D84" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C84)&amp;"','"&amp;A84&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933360','BIOMANDARINO S.A.S');</v>
       </c>
     </row>
@@ -2151,7 +2183,7 @@
         <v>1089933361</v>
       </c>
       <c r="D85" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C85)&amp;"','"&amp;A85&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933361','Rosita Brilly  Ángel Reitsch');</v>
       </c>
     </row>
@@ -2166,7 +2198,7 @@
         <v>1089933362</v>
       </c>
       <c r="D86" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C86)&amp;"','"&amp;A86&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933362','PABLO POCH FIGUEROA');</v>
       </c>
     </row>
@@ -2181,7 +2213,7 @@
         <v>1089933363</v>
       </c>
       <c r="D87" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C87)&amp;"','"&amp;A87&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933363','Guarany Indústria e Comécio Ltda');</v>
       </c>
     </row>
@@ -2196,7 +2228,7 @@
         <v>1089933364</v>
       </c>
       <c r="D88" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C88)&amp;"','"&amp;A88&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933364','218 mechanical s.a.s');</v>
       </c>
     </row>
@@ -2211,7 +2243,7 @@
         <v>1089933365</v>
       </c>
       <c r="D89" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C89)&amp;"','"&amp;A89&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933365','PAULO FABIANO GATELLI');</v>
       </c>
     </row>
@@ -2226,7 +2258,7 @@
         <v>1089933366</v>
       </c>
       <c r="D90" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C90)&amp;"','"&amp;A90&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933366','BIOCOLD TECHNOLOGIES S.AS. BIC');</v>
       </c>
     </row>
@@ -2241,7 +2273,7 @@
         <v>1089933367</v>
       </c>
       <c r="D91" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C91)&amp;"','"&amp;A91&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933367','UNIVERSIDAD DE ANTIOQUIA');</v>
       </c>
     </row>
@@ -2256,7 +2288,7 @@
         <v>1089933368</v>
       </c>
       <c r="D92" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C92)&amp;"','"&amp;A92&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933368','PRÓTESIS AVANZADAS S.A.S.');</v>
       </c>
     </row>
@@ -2271,7 +2303,7 @@
         <v>1089933369</v>
       </c>
       <c r="D93" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C93)&amp;"','"&amp;A93&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933369','FUNDACIÓN HOSPITALARIA SAN VICENTE DE PAÚL');</v>
       </c>
     </row>
@@ -2286,7 +2318,7 @@
         <v>1089933370</v>
       </c>
       <c r="D94" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C94)&amp;"','"&amp;A94&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933370','Frank David  Gómez Pinto');</v>
       </c>
     </row>
@@ -2301,7 +2333,7 @@
         <v>1089933371</v>
       </c>
       <c r="D95" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C95)&amp;"','"&amp;A95&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933371','OLGA PRAXCEDIS PRIETO MARIN');</v>
       </c>
     </row>
@@ -2316,7 +2348,7 @@
         <v>1089933372</v>
       </c>
       <c r="D96" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C96)&amp;"','"&amp;A96&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933372','ASADORES EL BARRIL SAS');</v>
       </c>
     </row>
@@ -2331,7 +2363,7 @@
         <v>1089933373</v>
       </c>
       <c r="D97" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C97)&amp;"','"&amp;A97&amp;"');"</f>
+        <f t="shared" si="2"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933373','WEG EQUIPAMENTOS ELÉTRICOS S.A');</v>
       </c>
     </row>
@@ -2346,7 +2378,7 @@
         <v>1089933374</v>
       </c>
       <c r="D98" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C98)&amp;"','"&amp;A98&amp;"');"</f>
+        <f t="shared" ref="D98:D129" si="3">"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C98)&amp;"','"&amp;A98&amp;"');"</f>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933374','QINGDAO RAINBOW CHEMICAL CO.');</v>
       </c>
     </row>
@@ -2361,7 +2393,7 @@
         <v>1089933375</v>
       </c>
       <c r="D99" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C99)&amp;"','"&amp;A99&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933375','DALHOUSIE UNIVERSITY');</v>
       </c>
     </row>
@@ -2376,7 +2408,7 @@
         <v>1089933376</v>
       </c>
       <c r="D100" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C100)&amp;"','"&amp;A100&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933376','DIANA MARYORI GUEVARA LOZADA');</v>
       </c>
     </row>
@@ -2391,7 +2423,7 @@
         <v>1089933377</v>
       </c>
       <c r="D101" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C101)&amp;"','"&amp;A101&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933377','CRISTIAN ALEXANDER GUEVARA CADAVID');</v>
       </c>
     </row>
@@ -2406,7 +2438,7 @@
         <v>1089933378</v>
       </c>
       <c r="D102" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C102)&amp;"','"&amp;A102&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933378','POLARISDRONE SAS');</v>
       </c>
     </row>
@@ -2421,7 +2453,7 @@
         <v>1089933379</v>
       </c>
       <c r="D103" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C103)&amp;"','"&amp;A103&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933379','UNIDADES TECNOLOGICAS DE SANTANDER');</v>
       </c>
     </row>
@@ -2436,7 +2468,7 @@
         <v>1089933380</v>
       </c>
       <c r="D104" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C104)&amp;"','"&amp;A104&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933380','UNIVERSIDAD LA GRAN COLOMBIA');</v>
       </c>
     </row>
@@ -2451,7 +2483,7 @@
         <v>1089933381</v>
       </c>
       <c r="D105" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C105)&amp;"','"&amp;A105&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933381','DSB CAPITAL GROUP SAS ');</v>
       </c>
     </row>
@@ -2466,7 +2498,7 @@
         <v>1089933382</v>
       </c>
       <c r="D106" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C106)&amp;"','"&amp;A106&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933382','RSG INTERNATIONAL CORP.');</v>
       </c>
     </row>
@@ -2481,7 +2513,7 @@
         <v>1089933383</v>
       </c>
       <c r="D107" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C107)&amp;"','"&amp;A107&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933383','LUIS FERNANDO VELEZ ZULUAGA');</v>
       </c>
     </row>
@@ -2496,7 +2528,7 @@
         <v>1089933384</v>
       </c>
       <c r="D108" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C108)&amp;"','"&amp;A108&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933384','HUGO ANDRES LOPEZ');</v>
       </c>
     </row>
@@ -2511,7 +2543,7 @@
         <v>1089933385</v>
       </c>
       <c r="D109" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C109)&amp;"','"&amp;A109&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933385','UNIVERSIDAD DE BOYACÁ');</v>
       </c>
     </row>
@@ -2526,7 +2558,7 @@
         <v>1089933386</v>
       </c>
       <c r="D110" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C110)&amp;"','"&amp;A110&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933386','ethan steven ramirez betancur');</v>
       </c>
     </row>
@@ -2541,7 +2573,7 @@
         <v>1089933387</v>
       </c>
       <c r="D111" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C111)&amp;"','"&amp;A111&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933387','ENER-RAM S.A.S.');</v>
       </c>
     </row>
@@ -2556,7 +2588,7 @@
         <v>1089933388</v>
       </c>
       <c r="D112" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C112)&amp;"','"&amp;A112&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933388','Cristian Angarita Parra');</v>
       </c>
     </row>
@@ -2571,7 +2603,7 @@
         <v>1089933389</v>
       </c>
       <c r="D113" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C113)&amp;"','"&amp;A113&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933389','CORPORACION HOSPITALARIA JUAN CIUDAD');</v>
       </c>
     </row>
@@ -2586,7 +2618,7 @@
         <v>1089933390</v>
       </c>
       <c r="D114" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C114)&amp;"','"&amp;A114&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933390','LUIS ANGEL CASTRILLON ARDILA');</v>
       </c>
     </row>
@@ -2601,7 +2633,7 @@
         <v>1089933391</v>
       </c>
       <c r="D115" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C115)&amp;"','"&amp;A115&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933391','MARIO ERNESTO PEREZ GUTIERREZ');</v>
       </c>
     </row>
@@ -2616,7 +2648,7 @@
         <v>1089933392</v>
       </c>
       <c r="D116" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C116)&amp;"','"&amp;A116&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933392','UNIVERSIDAD EAFIT');</v>
       </c>
     </row>
@@ -2631,7 +2663,7 @@
         <v>1089933393</v>
       </c>
       <c r="D117" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C117)&amp;"','"&amp;A117&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933393','SANADORES AMBIENTALES SANAM COMPANY S.A.S.');</v>
       </c>
     </row>
@@ -2646,7 +2678,7 @@
         <v>1089933394</v>
       </c>
       <c r="D118" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C118)&amp;"','"&amp;A118&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933394','REIFENHÄUSER GMBH &amp; CO. KG MASCHINENFABRIK');</v>
       </c>
     </row>
@@ -2661,7 +2693,7 @@
         <v>1089933395</v>
       </c>
       <c r="D119" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C119)&amp;"','"&amp;A119&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933395','PONTIFICIA UNIVERSIDAD JAVERIANA');</v>
       </c>
     </row>
@@ -2676,7 +2708,7 @@
         <v>1089933396</v>
       </c>
       <c r="D120" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C120)&amp;"','"&amp;A120&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933396','UNIVERSIDAD DE CARTAGENA');</v>
       </c>
     </row>
@@ -2691,7 +2723,7 @@
         <v>1089933397</v>
       </c>
       <c r="D121" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C121)&amp;"','"&amp;A121&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933397','Jonathan Alexander Nieves Suarez');</v>
       </c>
     </row>
@@ -2706,7 +2738,7 @@
         <v>1089933398</v>
       </c>
       <c r="D122" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C122)&amp;"','"&amp;A122&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933398','DVA AGRO GMBH');</v>
       </c>
     </row>
@@ -2721,7 +2753,7 @@
         <v>1089933399</v>
       </c>
       <c r="D123" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C123)&amp;"','"&amp;A123&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933399','SEB S.A.');</v>
       </c>
     </row>
@@ -2736,7 +2768,7 @@
         <v>1089933400</v>
       </c>
       <c r="D124" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C124)&amp;"','"&amp;A124&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933400','ALPINA PRODUCTOS ALIMENTICIOS S.A.S. - BIC.');</v>
       </c>
     </row>
@@ -2751,7 +2783,7 @@
         <v>1089933401</v>
       </c>
       <c r="D125" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C125)&amp;"','"&amp;A125&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933401','LIFEFACTORS S.A.S.');</v>
       </c>
     </row>
@@ -2766,7 +2798,7 @@
         <v>1089933402</v>
       </c>
       <c r="D126" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C126)&amp;"','"&amp;A126&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933402','LifeFactors Zona Franca SAS');</v>
       </c>
     </row>
@@ -2781,7 +2813,7 @@
         <v>1089933403</v>
       </c>
       <c r="D127" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C127)&amp;"','"&amp;A127&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933403','LifeFactors Canadá');</v>
       </c>
     </row>
@@ -2796,7 +2828,7 @@
         <v>1089933404</v>
       </c>
       <c r="D128" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C128)&amp;"','"&amp;A128&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933404','JUAN JOSE LOZADA CASTRO');</v>
       </c>
     </row>
@@ -2811,7 +2843,7 @@
         <v>1089933405</v>
       </c>
       <c r="D129" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C129)&amp;"','"&amp;A129&amp;"');"</f>
+        <f t="shared" si="3"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933405','INDUSTRIA MILITAR - INDUMIL');</v>
       </c>
     </row>
@@ -2826,7 +2858,7 @@
         <v>1089933406</v>
       </c>
       <c r="D130" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C130)&amp;"','"&amp;A130&amp;"');"</f>
+        <f t="shared" ref="D130:D146" si="4">"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C130)&amp;"','"&amp;A130&amp;"');"</f>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933406','Papier-Mettler KG');</v>
       </c>
     </row>
@@ -2841,7 +2873,7 @@
         <v>1089933407</v>
       </c>
       <c r="D131" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C131)&amp;"','"&amp;A131&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933407','3LOX LLC');</v>
       </c>
     </row>
@@ -2856,7 +2888,7 @@
         <v>1089933408</v>
       </c>
       <c r="D132" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C132)&amp;"','"&amp;A132&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933408','EDILSON ALEJANDRO OROZCO CASTAÑEDA');</v>
       </c>
     </row>
@@ -2871,7 +2903,7 @@
         <v>1089933409</v>
       </c>
       <c r="D133" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C133)&amp;"','"&amp;A133&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933409','JUAN PABLO RUIZ ZULUAGA');</v>
       </c>
     </row>
@@ -2886,7 +2918,7 @@
         <v>1089933410</v>
       </c>
       <c r="D134" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C134)&amp;"','"&amp;A134&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933410','ANYELO ALEJANDRO GIRALDO OSPITIA');</v>
       </c>
     </row>
@@ -2901,8 +2933,173 @@
         <v>1089933411</v>
       </c>
       <c r="D135" t="str">
-        <f>"INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('"&amp;CLEAN(C135)&amp;"','"&amp;A135&amp;"');"</f>
+        <f t="shared" si="4"/>
         <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933411','CARMEN ELENA AUZ AAGUIRRE');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4">
+        <v>1089933412</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933412','UNIVERSIDAD DE LA SABANA');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1">
+        <v>136</v>
+      </c>
+      <c r="C137" s="4">
+        <v>1089933413</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933413','UNIVERSIDAD DE MEDELLIN');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1">
+        <v>137</v>
+      </c>
+      <c r="C138" s="4">
+        <v>1089933414</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933414','Juan Roncancio');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1">
+        <v>138</v>
+      </c>
+      <c r="C139" s="4">
+        <v>1089933415</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933415','CORPORACIÓN COLOMBIANA DE INVESTIGACIÓN AGROPECUARIA - AGROSAVIA');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1">
+        <v>139</v>
+      </c>
+      <c r="C140" s="4">
+        <v>1089933416</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933416','VISUALITI SAS');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1">
+        <v>140</v>
+      </c>
+      <c r="C141" s="4">
+        <v>1089933417</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933417','Angela Ines Dominguez Camacho');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1">
+        <v>141</v>
+      </c>
+      <c r="C142" s="4">
+        <v>1089933418</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933418','Yongnong Biosciences Co');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1">
+        <v>142</v>
+      </c>
+      <c r="C143" s="4">
+        <v>1089933419</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933419','HUGO ANDRES LOPEZ ');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1">
+        <v>143</v>
+      </c>
+      <c r="C144" s="4">
+        <v>1089933420</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933420','LifeFactors Canadá (LifeFactors IP LP)');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1">
+        <v>144</v>
+      </c>
+      <c r="C145" s="4">
+        <v>1089933421</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933421','JHON FREDY HINCAPIE ECHEVERRI');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1">
+        <v>145</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1089933422</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO USUARIO(NODOCUMENTO, NOMBRE) VALUES('1089933422','JEISON DANIEL ECHEVERRI LOPEZ');</v>
       </c>
     </row>
   </sheetData>
